--- a/src/main/resources/Processes.xlsx
+++ b/src/main/resources/Processes.xlsx
@@ -260,7 +260,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -269,13 +269,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>44005.0</v>
+        <v>44010.0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Processes.xlsx
+++ b/src/main/resources/Processes.xlsx
@@ -68,10 +68,10 @@
     <t>Senior PHP Developer/Architect</t>
   </si>
   <si>
-    <t>.NET</t>
-  </si>
-  <si>
-    <t>C#</t>
+    <t>Java Senior Dev</t>
+  </si>
+  <si>
+    <t>Radom</t>
   </si>
 </sst>
 </file>
@@ -260,22 +260,22 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>15000.0</v>
       </c>
       <c r="G6" t="n">
-        <v>44010.0</v>
+        <v>44000.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Processes.xlsx
+++ b/src/main/resources/Processes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -38,40 +38,67 @@
     <t>Candidates in the process</t>
   </si>
   <si>
+    <t>Senior Java Developer</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>PHP Developer</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>Senior PHP Developer/Architect</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
     <t>.NET Developer</t>
   </si>
   <si>
     <t>Poznań</t>
   </si>
   <si>
-    <t>.NET/C#</t>
-  </si>
-  <si>
-    <t>Senior Java Developer</t>
-  </si>
-  <si>
-    <t>Gdańsk</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>PHP Developer</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <t>Senior PHP Developer/Architect</t>
-  </si>
-  <si>
-    <t>Java Senior Dev</t>
-  </si>
-  <si>
-    <t>Radom</t>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>Front-end Developer</t>
+  </si>
+  <si>
+    <t>Częstochowa</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
   </si>
 </sst>
 </file>
@@ -116,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,13 +177,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>115.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>13000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -165,117 +192,143 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>44032.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>116.0</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>18000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43997.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>19000.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11000.0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>44075.0</v>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>118.0</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>19000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>44016.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>103.0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" t="n">
-        <v>15000.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>44000.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Processes.xlsx
+++ b/src/main/resources/Processes.xlsx
@@ -38,6 +38,54 @@
     <t>Candidates in the process</t>
   </si>
   <si>
+    <t>Senior PHP Developer/Architect</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>.NET Developer</t>
+  </si>
+  <si>
+    <t>Poznań</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>Front-end Developer</t>
+  </si>
+  <si>
+    <t>Częstochowa</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
     <t>Senior Java Developer</t>
   </si>
   <si>
@@ -47,58 +95,10 @@
     <t>Java</t>
   </si>
   <si>
-    <t>2020-07-12</t>
-  </si>
-  <si>
     <t>PHP Developer</t>
   </si>
   <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
     <t>2020-10-01</t>
-  </si>
-  <si>
-    <t>Senior PHP Developer/Architect</t>
-  </si>
-  <si>
-    <t>2020-08-20</t>
-  </si>
-  <si>
-    <t>Ruby on Rails</t>
-  </si>
-  <si>
-    <t>Katowice</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>.NET Developer</t>
-  </si>
-  <si>
-    <t>Poznań</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>2020-07-01</t>
-  </si>
-  <si>
-    <t>Front-end Developer</t>
-  </si>
-  <si>
-    <t>Częstochowa</t>
-  </si>
-  <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>2020-10-04</t>
   </si>
 </sst>
 </file>
@@ -177,13 +177,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>115.0</v>
+        <v>117.0</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>18000.0</v>
+        <v>19000.0</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -192,24 +192,24 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>116.0</v>
+        <v>118.0</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>11000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -218,88 +218,88 @@
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>117.0</v>
+        <v>103.0</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>3.0</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>9000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>103.0</v>
+        <v>115.0</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>13000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
         <v>2.0</v>
@@ -307,19 +307,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>119.0</v>
+        <v>116.0</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>7000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>4.0</v>
@@ -328,7 +328,7 @@
         <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
